--- a/biology/Botanique/Maria_Elizabeth_Holland/Maria_Elizabeth_Holland.xlsx
+++ b/biology/Botanique/Maria_Elizabeth_Holland/Maria_Elizabeth_Holland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Elizabeth Holland, née Armstrong le 24 avril 1836 à Uitenhage, Afrique du Sud et morte le 15 janvier 1878 à Londres, est une botaniste et une illustratrice sud-africaine[1].
-Maria Elizabeth Holland était l'aînée de quinze enfants[2] et était mariée à John Holland de Port Elizabeth. Son grand-père était Jacob Glen Cuyler (en), américain d'origine néerlandaise qui a joué un rôle important dans l'établissement des colons britanniques de 1820 au Cap-Oriental, en Afrique du Sud[3].
-Elle recueille et dessine des spécimens de plantes dans les régions de Uitenhage et de Port Elizabeth[2] et contribue ainsi au volume I (1860) du Thesaurus capensis de William Henry Harvey[4], qui l'a remerciée dans la préface du Flora Capensis (en)[5].
-Elle figure parmi les femmes qui ont parcouru l'Afrique pour apporter leur contribution à la science[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Elizabeth Holland, née Armstrong le 24 avril 1836 à Uitenhage, Afrique du Sud et morte le 15 janvier 1878 à Londres, est une botaniste et une illustratrice sud-africaine.
+Maria Elizabeth Holland était l'aînée de quinze enfants et était mariée à John Holland de Port Elizabeth. Son grand-père était Jacob Glen Cuyler (en), américain d'origine néerlandaise qui a joué un rôle important dans l'établissement des colons britanniques de 1820 au Cap-Oriental, en Afrique du Sud.
+Elle recueille et dessine des spécimens de plantes dans les régions de Uitenhage et de Port Elizabeth et contribue ainsi au volume I (1860) du Thesaurus capensis de William Henry Harvey, qui l'a remerciée dans la préface du Flora Capensis (en).
+Elle figure parmi les femmes qui ont parcouru l'Afrique pour apporter leur contribution à la science.
 </t>
         </is>
       </c>
